--- a/Mythral Artificer Table Price Data.xlsx
+++ b/Mythral Artificer Table Price Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Justin\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8391F45B-E84B-4614-9950-D0EA18938A74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F6A626-ACB4-4719-8CB6-577A80FB84AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81041F3E-9F76-4671-BA59-B597A4FFB363}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{81041F3E-9F76-4671-BA59-B597A4FFB363}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -502,6 +502,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Price for Most</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Popular Pledge</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -564,6 +624,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># of Backers</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3246,22 +3361,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>151287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
+      <xdr:colOff>75262</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>40170</xdr:rowOff>
+      <xdr:rowOff>8907</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C7D3A6B-12A2-422E-681E-2512B1CA7B72}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B17702-2DE3-9994-6DEC-D541269829C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3277,8 +3392,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6934200" y="3067050"/>
-          <a:ext cx="4886325" cy="3259620"/>
+          <a:off x="6962775" y="3199287"/>
+          <a:ext cx="4694887" cy="3096120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3590,7 +3705,7 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3939,7 +4054,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
